--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>458.4644694899711</v>
+        <v>624.8020112781885</v>
       </c>
       <c r="AB2" t="n">
-        <v>627.2913131810921</v>
+        <v>854.8816761501639</v>
       </c>
       <c r="AC2" t="n">
-        <v>567.4235106599752</v>
+        <v>773.2929688123596</v>
       </c>
       <c r="AD2" t="n">
-        <v>458464.4694899711</v>
+        <v>624802.0112781886</v>
       </c>
       <c r="AE2" t="n">
-        <v>627291.313181092</v>
+        <v>854881.6761501639</v>
       </c>
       <c r="AF2" t="n">
         <v>4.615982854624375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.01041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>567423.5106599752</v>
+        <v>773292.9688123596</v>
       </c>
     </row>
     <row r="3">
@@ -2283,28 +2283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.1477049775971</v>
+        <v>490.0855175359888</v>
       </c>
       <c r="AB3" t="n">
-        <v>483.1922697275275</v>
+        <v>670.5566261398376</v>
       </c>
       <c r="AC3" t="n">
-        <v>437.0770776693413</v>
+        <v>606.5596428731862</v>
       </c>
       <c r="AD3" t="n">
-        <v>353147.7049775971</v>
+        <v>490085.5175359888</v>
       </c>
       <c r="AE3" t="n">
-        <v>483192.2697275275</v>
+        <v>670556.6261398375</v>
       </c>
       <c r="AF3" t="n">
         <v>5.780028512019238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>437077.0776693413</v>
+        <v>606559.6428731863</v>
       </c>
     </row>
     <row r="4">
@@ -2389,28 +2389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>322.464371100667</v>
+        <v>449.6136623887103</v>
       </c>
       <c r="AB4" t="n">
-        <v>441.2099786639572</v>
+        <v>615.1812484350959</v>
       </c>
       <c r="AC4" t="n">
-        <v>399.1015175423626</v>
+        <v>556.4692134967544</v>
       </c>
       <c r="AD4" t="n">
-        <v>322464.371100667</v>
+        <v>449613.6623887104</v>
       </c>
       <c r="AE4" t="n">
-        <v>441209.9786639572</v>
+        <v>615181.2484350959</v>
       </c>
       <c r="AF4" t="n">
         <v>6.218670134392637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>399101.5175423626</v>
+        <v>556469.2134967544</v>
       </c>
     </row>
     <row r="5">
@@ -2495,28 +2495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.1553423654556</v>
+        <v>423.5502778019313</v>
       </c>
       <c r="AB5" t="n">
-        <v>418.8952460448731</v>
+        <v>579.5201758080881</v>
       </c>
       <c r="AC5" t="n">
-        <v>378.9164716855199</v>
+        <v>524.2115835906385</v>
       </c>
       <c r="AD5" t="n">
-        <v>306155.3423654556</v>
+        <v>423550.2778019313</v>
       </c>
       <c r="AE5" t="n">
-        <v>418895.2460448731</v>
+        <v>579520.175808088</v>
       </c>
       <c r="AF5" t="n">
         <v>6.439799031409399e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>378916.4716855199</v>
+        <v>524211.5835906385</v>
       </c>
     </row>
     <row r="6">
@@ -2601,28 +2601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>305.2932376637424</v>
+        <v>422.6881731002183</v>
       </c>
       <c r="AB6" t="n">
-        <v>417.715676358614</v>
+        <v>578.3406061218291</v>
       </c>
       <c r="AC6" t="n">
-        <v>377.8494784745809</v>
+        <v>523.1445903796996</v>
       </c>
       <c r="AD6" t="n">
-        <v>305293.2376637424</v>
+        <v>422688.1731002182</v>
       </c>
       <c r="AE6" t="n">
-        <v>417715.676358614</v>
+        <v>578340.606121829</v>
       </c>
       <c r="AF6" t="n">
         <v>6.470355681937472e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>377849.4784745809</v>
+        <v>523144.5903796995</v>
       </c>
     </row>
   </sheetData>
@@ -2898,28 +2898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>388.4808078984855</v>
+        <v>533.6217253424028</v>
       </c>
       <c r="AB2" t="n">
-        <v>531.5365799303742</v>
+        <v>730.1247863425067</v>
       </c>
       <c r="AC2" t="n">
-        <v>480.8074747580939</v>
+        <v>660.4427014705506</v>
       </c>
       <c r="AD2" t="n">
-        <v>388480.8078984855</v>
+        <v>533621.7253424028</v>
       </c>
       <c r="AE2" t="n">
-        <v>531536.5799303742</v>
+        <v>730124.7863425066</v>
       </c>
       <c r="AF2" t="n">
         <v>5.658427050753278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.33854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>480807.4747580939</v>
+        <v>660442.7014705506</v>
       </c>
     </row>
     <row r="3">
@@ -3004,28 +3004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.0113000666486</v>
+        <v>440.7569537915689</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.0123580689252</v>
+        <v>603.06310900208</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.87714354447</v>
+        <v>545.50761228331</v>
       </c>
       <c r="AD3" t="n">
-        <v>315011.3000666486</v>
+        <v>440756.9537915689</v>
       </c>
       <c r="AE3" t="n">
-        <v>431012.3580689252</v>
+        <v>603063.1090020799</v>
       </c>
       <c r="AF3" t="n">
         <v>6.767176456425681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>389877.14354447</v>
+        <v>545507.61228331</v>
       </c>
     </row>
     <row r="4">
@@ -3110,28 +3110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>286.3801228062156</v>
+        <v>412.1589309200594</v>
       </c>
       <c r="AB4" t="n">
-        <v>391.8379182228063</v>
+        <v>563.9340324535548</v>
       </c>
       <c r="AC4" t="n">
-        <v>354.4414572555931</v>
+        <v>510.1129598825724</v>
       </c>
       <c r="AD4" t="n">
-        <v>286380.1228062156</v>
+        <v>412158.9309200594</v>
       </c>
       <c r="AE4" t="n">
-        <v>391837.9182228063</v>
+        <v>563934.0324535548</v>
       </c>
       <c r="AF4" t="n">
         <v>7.189758160556339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.88020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>354441.4572555932</v>
+        <v>510112.9598825724</v>
       </c>
     </row>
     <row r="5">
@@ -3216,28 +3216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>286.591940843818</v>
+        <v>412.3707489576619</v>
       </c>
       <c r="AB5" t="n">
-        <v>392.1277370066063</v>
+        <v>564.2238512373548</v>
       </c>
       <c r="AC5" t="n">
-        <v>354.7036161414305</v>
+        <v>510.3751187684097</v>
       </c>
       <c r="AD5" t="n">
-        <v>286591.940843818</v>
+        <v>412370.7489576619</v>
       </c>
       <c r="AE5" t="n">
-        <v>392127.7370066063</v>
+        <v>564223.8512373548</v>
       </c>
       <c r="AF5" t="n">
         <v>7.184086808097658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.90625</v>
       </c>
       <c r="AH5" t="n">
-        <v>354703.6161414305</v>
+        <v>510375.1187684097</v>
       </c>
     </row>
   </sheetData>
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.6978422530901</v>
+        <v>386.8963033221038</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.8537065841762</v>
+        <v>529.3685908655605</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.9827563417719</v>
+        <v>478.8463955268342</v>
       </c>
       <c r="AD2" t="n">
-        <v>274697.8422530901</v>
+        <v>386896.3033221038</v>
       </c>
       <c r="AE2" t="n">
-        <v>375853.7065841762</v>
+        <v>529368.5908655605</v>
       </c>
       <c r="AF2" t="n">
         <v>9.953330433315898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.08854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>339982.7563417719</v>
+        <v>478846.3955268342</v>
       </c>
     </row>
     <row r="3">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.914381571237</v>
+        <v>387.1128426402507</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.1499852323053</v>
+        <v>529.6648695136895</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.2507585715533</v>
+        <v>479.1143977566156</v>
       </c>
       <c r="AD3" t="n">
-        <v>274914.381571237</v>
+        <v>387112.8426402507</v>
       </c>
       <c r="AE3" t="n">
-        <v>376149.9852323053</v>
+        <v>529664.8695136895</v>
       </c>
       <c r="AF3" t="n">
         <v>9.963179383288755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>340250.7585715533</v>
+        <v>479114.3977566156</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.0096187758462</v>
+        <v>424.2830304460717</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.8546400162666</v>
+        <v>580.5227603025662</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.547811214731</v>
+        <v>525.1184828280998</v>
       </c>
       <c r="AD2" t="n">
-        <v>301009.6187758462</v>
+        <v>424283.0304460718</v>
       </c>
       <c r="AE2" t="n">
-        <v>411854.6400162666</v>
+        <v>580522.7603025662</v>
       </c>
       <c r="AF2" t="n">
         <v>8.080962540506761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>372547.811214731</v>
+        <v>525118.4828280997</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.0782682599228</v>
+        <v>396.2833490925867</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.6377339961628</v>
+        <v>542.212361015967</v>
       </c>
       <c r="AC3" t="n">
-        <v>337.9782730674215</v>
+        <v>490.4643742804305</v>
       </c>
       <c r="AD3" t="n">
-        <v>273078.2682599228</v>
+        <v>396283.3490925867</v>
       </c>
       <c r="AE3" t="n">
-        <v>373637.7339961628</v>
+        <v>542212.361015967</v>
       </c>
       <c r="AF3" t="n">
         <v>8.71698451897035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>337978.2730674215</v>
+        <v>490464.3742804305</v>
       </c>
     </row>
   </sheetData>
@@ -4319,28 +4319,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.0175507412371</v>
+        <v>389.2495468077595</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.0816811408836</v>
+        <v>532.58840242041</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.9524820986811</v>
+        <v>481.7589127859228</v>
       </c>
       <c r="AD2" t="n">
-        <v>269017.5507412371</v>
+        <v>389249.5468077596</v>
       </c>
       <c r="AE2" t="n">
-        <v>368081.6811408837</v>
+        <v>532588.4024204101</v>
       </c>
       <c r="AF2" t="n">
         <v>1.109296968863776e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>332952.482098681</v>
+        <v>481758.9127859228</v>
       </c>
     </row>
   </sheetData>
@@ -4616,28 +4616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.1206542653025</v>
+        <v>560.3620282200457</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.3039518276647</v>
+        <v>766.7120484386013</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.4019606357143</v>
+        <v>693.5381266227389</v>
       </c>
       <c r="AD2" t="n">
-        <v>405120.6542653025</v>
+        <v>560362.0282200456</v>
       </c>
       <c r="AE2" t="n">
-        <v>554303.9518276647</v>
+        <v>766712.0484386013</v>
       </c>
       <c r="AF2" t="n">
         <v>5.377647769290902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>501401.9606357142</v>
+        <v>693538.1266227389</v>
       </c>
     </row>
     <row r="3">
@@ -4722,28 +4722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.4721676818939</v>
+        <v>455.328838627907</v>
       </c>
       <c r="AB3" t="n">
-        <v>437.1159139396934</v>
+        <v>623.0010047013454</v>
       </c>
       <c r="AC3" t="n">
-        <v>395.3981846093267</v>
+        <v>563.54266320005</v>
       </c>
       <c r="AD3" t="n">
-        <v>319472.1676818939</v>
+        <v>455328.838627907</v>
       </c>
       <c r="AE3" t="n">
-        <v>437115.9139396934</v>
+        <v>623001.0047013455</v>
       </c>
       <c r="AF3" t="n">
         <v>6.499575744038914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>395398.1846093267</v>
+        <v>563542.66320005</v>
       </c>
     </row>
     <row r="4">
@@ -4828,28 +4828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.1590090267861</v>
+        <v>416.5988336050028</v>
       </c>
       <c r="AB4" t="n">
-        <v>410.6907982313489</v>
+        <v>570.0089031817766</v>
       </c>
       <c r="AC4" t="n">
-        <v>371.4950448563036</v>
+        <v>515.6080534746274</v>
       </c>
       <c r="AD4" t="n">
-        <v>300159.0090267861</v>
+        <v>416598.8336050028</v>
       </c>
       <c r="AE4" t="n">
-        <v>410690.7982313489</v>
+        <v>570008.9031817766</v>
       </c>
       <c r="AF4" t="n">
         <v>6.911627185034182e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>371495.0448563036</v>
+        <v>515608.0534746273</v>
       </c>
     </row>
     <row r="5">
@@ -4934,28 +4934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>298.7697962143314</v>
+        <v>415.2096207925482</v>
       </c>
       <c r="AB5" t="n">
-        <v>408.7900159736045</v>
+        <v>568.1081209240324</v>
       </c>
       <c r="AC5" t="n">
-        <v>369.7756705894737</v>
+        <v>513.8886792077975</v>
       </c>
       <c r="AD5" t="n">
-        <v>298769.7962143314</v>
+        <v>415209.6207925482</v>
       </c>
       <c r="AE5" t="n">
-        <v>408790.0159736045</v>
+        <v>568108.1209240324</v>
       </c>
       <c r="AF5" t="n">
         <v>6.975529587175101e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.03645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>369775.6705894737</v>
+        <v>513888.6792077975</v>
       </c>
     </row>
   </sheetData>
@@ -5231,28 +5231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.0297761893308</v>
+        <v>394.3920296835161</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.3078732396325</v>
+        <v>539.624574361353</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.3935779690584</v>
+        <v>488.1235623521515</v>
       </c>
       <c r="AD2" t="n">
-        <v>275029.7761893308</v>
+        <v>394392.0296835161</v>
       </c>
       <c r="AE2" t="n">
-        <v>376307.8732396325</v>
+        <v>539624.5743613529</v>
       </c>
       <c r="AF2" t="n">
         <v>1.184417019863096e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>340393.5779690584</v>
+        <v>488123.5623521515</v>
       </c>
     </row>
   </sheetData>
@@ -5528,28 +5528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.2427040762964</v>
+        <v>483.4135972388947</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.8492752178867</v>
+        <v>661.4278104450037</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.2440110567608</v>
+        <v>598.3020685358941</v>
       </c>
       <c r="AD2" t="n">
-        <v>349242.7040762964</v>
+        <v>483413.5972388947</v>
       </c>
       <c r="AE2" t="n">
-        <v>477849.2752178867</v>
+        <v>661427.8104450037</v>
       </c>
       <c r="AF2" t="n">
         <v>6.661452250722439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>432244.0110567608</v>
+        <v>598302.0685358942</v>
       </c>
     </row>
     <row r="3">
@@ -5634,28 +5634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.2722750377455</v>
+        <v>406.2662806331576</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.5315767325098</v>
+        <v>555.8714483656325</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.4962823917392</v>
+        <v>502.8198575040935</v>
       </c>
       <c r="AD3" t="n">
-        <v>291272.2750377455</v>
+        <v>406266.2806331576</v>
       </c>
       <c r="AE3" t="n">
-        <v>398531.5767325098</v>
+        <v>555871.4483656326</v>
       </c>
       <c r="AF3" t="n">
         <v>7.771765999674908e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.03645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>360496.2823917392</v>
+        <v>502819.8575040935</v>
       </c>
     </row>
     <row r="4">
@@ -5740,28 +5740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.7837524439502</v>
+        <v>394.8450778470669</v>
       </c>
       <c r="AB4" t="n">
-        <v>382.812473281833</v>
+        <v>540.2444548457972</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.2773881124949</v>
+        <v>488.6842823131683</v>
       </c>
       <c r="AD4" t="n">
-        <v>279783.7524439502</v>
+        <v>394845.0778470669</v>
       </c>
       <c r="AE4" t="n">
-        <v>382812.4732818331</v>
+        <v>540244.4548457973</v>
       </c>
       <c r="AF4" t="n">
         <v>7.878681383276569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.69791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>346277.3881124948</v>
+        <v>488684.2823131683</v>
       </c>
     </row>
   </sheetData>
@@ -6037,28 +6037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.8220760287915</v>
+        <v>516.5884325302407</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.7433680548776</v>
+        <v>706.8190836610626</v>
       </c>
       <c r="AC2" t="n">
-        <v>460.1896150335209</v>
+        <v>639.3612623432645</v>
       </c>
       <c r="AD2" t="n">
-        <v>371822.0760287914</v>
+        <v>516588.4325302406</v>
       </c>
       <c r="AE2" t="n">
-        <v>508743.3680548776</v>
+        <v>706819.0836610625</v>
       </c>
       <c r="AF2" t="n">
         <v>5.967809044840598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>460189.6150335209</v>
+        <v>639361.2623432644</v>
       </c>
     </row>
     <row r="3">
@@ -6143,28 +6143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.4986505917191</v>
+        <v>425.9286608075276</v>
       </c>
       <c r="AB3" t="n">
-        <v>411.1555108044186</v>
+        <v>582.7743843631978</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.9154059136277</v>
+        <v>527.1552150485589</v>
       </c>
       <c r="AD3" t="n">
-        <v>300498.6505917191</v>
+        <v>425928.6608075276</v>
       </c>
       <c r="AE3" t="n">
-        <v>411155.5108044186</v>
+        <v>582774.3843631978</v>
       </c>
       <c r="AF3" t="n">
         <v>7.081096139879026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>371915.4059136277</v>
+        <v>527155.2150485589</v>
       </c>
     </row>
     <row r="4">
@@ -6249,28 +6249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.1943356078753</v>
+        <v>409.590180404903</v>
       </c>
       <c r="AB4" t="n">
-        <v>388.8472277479117</v>
+        <v>560.4193546734431</v>
       </c>
       <c r="AC4" t="n">
-        <v>351.736194082162</v>
+        <v>506.9337180169134</v>
       </c>
       <c r="AD4" t="n">
-        <v>284194.3356078753</v>
+        <v>409590.180404903</v>
       </c>
       <c r="AE4" t="n">
-        <v>388847.2277479117</v>
+        <v>560419.3546734431</v>
       </c>
       <c r="AF4" t="n">
         <v>7.389199426395011e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>351736.194082162</v>
+        <v>506933.7180169133</v>
       </c>
     </row>
     <row r="5">
@@ -6355,28 +6355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>284.495458051288</v>
+        <v>409.8913028483158</v>
       </c>
       <c r="AB5" t="n">
-        <v>389.2592367595736</v>
+        <v>560.831363685105</v>
       </c>
       <c r="AC5" t="n">
-        <v>352.1088815320092</v>
+        <v>507.3064054667605</v>
       </c>
       <c r="AD5" t="n">
-        <v>284495.458051288</v>
+        <v>409891.3028483158</v>
       </c>
       <c r="AE5" t="n">
-        <v>389259.2367595736</v>
+        <v>560831.363685105</v>
       </c>
       <c r="AF5" t="n">
         <v>7.386085904606844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>352108.8815320092</v>
+        <v>507306.4054667605</v>
       </c>
     </row>
   </sheetData>
@@ -6652,28 +6652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>429.7256067157381</v>
+        <v>595.6596359020675</v>
       </c>
       <c r="AB2" t="n">
-        <v>587.9695332642426</v>
+        <v>815.0077924896916</v>
       </c>
       <c r="AC2" t="n">
-        <v>531.8545462299254</v>
+        <v>737.2245926450958</v>
       </c>
       <c r="AD2" t="n">
-        <v>429725.6067157381</v>
+        <v>595659.6359020675</v>
       </c>
       <c r="AE2" t="n">
-        <v>587969.5332642426</v>
+        <v>815007.7924896916</v>
       </c>
       <c r="AF2" t="n">
         <v>4.870921192118265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>531854.5462299254</v>
+        <v>737224.5926450958</v>
       </c>
     </row>
     <row r="3">
@@ -6758,28 +6758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.9272012229119</v>
+        <v>475.5727254789279</v>
       </c>
       <c r="AB3" t="n">
-        <v>463.7351491260187</v>
+        <v>650.6995837881684</v>
       </c>
       <c r="AC3" t="n">
-        <v>419.4769173498004</v>
+        <v>588.5977287740265</v>
       </c>
       <c r="AD3" t="n">
-        <v>338927.2012229119</v>
+        <v>475572.7254789278</v>
       </c>
       <c r="AE3" t="n">
-        <v>463735.1491260187</v>
+        <v>650699.5837881684</v>
       </c>
       <c r="AF3" t="n">
         <v>5.990511940587063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>419476.9173498004</v>
+        <v>588597.7287740265</v>
       </c>
     </row>
     <row r="4">
@@ -6864,28 +6864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.5737135710095</v>
+        <v>435.4564028502542</v>
       </c>
       <c r="AB4" t="n">
-        <v>422.2041682193197</v>
+        <v>595.8106613603694</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.9095949717388</v>
+        <v>538.9473280656501</v>
       </c>
       <c r="AD4" t="n">
-        <v>308573.7135710095</v>
+        <v>435456.4028502541</v>
       </c>
       <c r="AE4" t="n">
-        <v>422204.1682193197</v>
+        <v>595810.6613603694</v>
       </c>
       <c r="AF4" t="n">
         <v>6.424541020588103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>381909.5949717388</v>
+        <v>538947.3280656502</v>
       </c>
     </row>
     <row r="5">
@@ -6970,28 +6970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>303.1727291220477</v>
+        <v>420.2594290355975</v>
       </c>
       <c r="AB5" t="n">
-        <v>414.8143030216328</v>
+        <v>575.017491343989</v>
       </c>
       <c r="AC5" t="n">
-        <v>375.2250081367781</v>
+        <v>520.1386290122358</v>
       </c>
       <c r="AD5" t="n">
-        <v>303172.7291220477</v>
+        <v>420259.4290355975</v>
       </c>
       <c r="AE5" t="n">
-        <v>414814.3030216328</v>
+        <v>575017.491343989</v>
       </c>
       <c r="AF5" t="n">
         <v>6.622789063650671e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>375225.0081367781</v>
+        <v>520138.6290122358</v>
       </c>
     </row>
     <row r="6">
@@ -7076,28 +7076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>303.3054864151683</v>
+        <v>420.3921863287181</v>
       </c>
       <c r="AB6" t="n">
-        <v>414.9959474069188</v>
+        <v>575.1991357292751</v>
       </c>
       <c r="AC6" t="n">
-        <v>375.389316636872</v>
+        <v>520.3029375123297</v>
       </c>
       <c r="AD6" t="n">
-        <v>303305.4864151683</v>
+        <v>420392.1863287181</v>
       </c>
       <c r="AE6" t="n">
-        <v>414995.9474069188</v>
+        <v>575199.1357292751</v>
       </c>
       <c r="AF6" t="n">
         <v>6.621435414691211e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>375389.316636872</v>
+        <v>520302.9375123297</v>
       </c>
     </row>
   </sheetData>
@@ -7373,28 +7373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.0560021075397</v>
+        <v>450.1967393111586</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.8100096071599</v>
+        <v>615.9790400039279</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.4077911464243</v>
+        <v>557.1908649579645</v>
       </c>
       <c r="AD2" t="n">
-        <v>317056.0021075397</v>
+        <v>450196.7393111586</v>
       </c>
       <c r="AE2" t="n">
-        <v>433810.0096071599</v>
+        <v>615979.0400039279</v>
       </c>
       <c r="AF2" t="n">
         <v>7.544994703606254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>392407.7911464243</v>
+        <v>557190.8649579645</v>
       </c>
     </row>
     <row r="3">
@@ -7479,28 +7479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.4310341143262</v>
+        <v>399.1193491364435</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.8568920348615</v>
+        <v>546.0927013914633</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.8901991810234</v>
+        <v>493.9743804165814</v>
       </c>
       <c r="AD3" t="n">
-        <v>275431.0341143262</v>
+        <v>399119.3491364435</v>
       </c>
       <c r="AE3" t="n">
-        <v>376856.8920348614</v>
+        <v>546092.7013914633</v>
       </c>
       <c r="AF3" t="n">
         <v>8.389216735344717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>340890.1991810234</v>
+        <v>493974.3804165814</v>
       </c>
     </row>
   </sheetData>
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.5817430725642</v>
+        <v>401.6582262197067</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.5360751478782</v>
+        <v>549.5665050241358</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.0273690285173</v>
+        <v>497.1166491060658</v>
       </c>
       <c r="AD2" t="n">
-        <v>279581.7430725642</v>
+        <v>401658.2262197067</v>
       </c>
       <c r="AE2" t="n">
-        <v>382536.0751478782</v>
+        <v>549566.5050241358</v>
       </c>
       <c r="AF2" t="n">
         <v>9.299876360940976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>346027.3690285173</v>
+        <v>497116.6491060658</v>
       </c>
     </row>
     <row r="3">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.1628593059543</v>
+        <v>390.3066622608013</v>
       </c>
       <c r="AB3" t="n">
-        <v>366.9122546128048</v>
+        <v>534.034794419904</v>
       </c>
       <c r="AC3" t="n">
-        <v>331.8946639971415</v>
+        <v>483.067263163009</v>
       </c>
       <c r="AD3" t="n">
-        <v>268162.8593059542</v>
+        <v>390306.6622608012</v>
       </c>
       <c r="AE3" t="n">
-        <v>366912.2546128047</v>
+        <v>534034.794419904</v>
       </c>
       <c r="AF3" t="n">
         <v>9.478938186096304e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>331894.6639971415</v>
+        <v>483067.263163009</v>
       </c>
     </row>
   </sheetData>
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.8664424391067</v>
+        <v>383.47073164323</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.9796604461402</v>
+        <v>524.6815725689684</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.4784437298921</v>
+        <v>474.6066996781976</v>
       </c>
       <c r="AD2" t="n">
-        <v>271866.4424391066</v>
+        <v>383470.73164323</v>
       </c>
       <c r="AE2" t="n">
-        <v>371979.6604461402</v>
+        <v>524681.5725689684</v>
       </c>
       <c r="AF2" t="n">
         <v>1.048951021612332e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>336478.4437298921</v>
+        <v>474606.6996781976</v>
       </c>
     </row>
   </sheetData>
@@ -13697,28 +13697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.1101019444528</v>
+        <v>408.7239528563172</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.6272431828309</v>
+        <v>559.2341439262057</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.918958921187</v>
+        <v>505.8616221199385</v>
       </c>
       <c r="AD2" t="n">
-        <v>281110.1019444528</v>
+        <v>408723.9528563172</v>
       </c>
       <c r="AE2" t="n">
-        <v>384627.2431828309</v>
+        <v>559234.1439262057</v>
       </c>
       <c r="AF2" t="n">
         <v>1.260647567479628e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>347918.958921187</v>
+        <v>505861.6221199385</v>
       </c>
     </row>
   </sheetData>
@@ -13994,28 +13994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.7494348569315</v>
+        <v>500.0217973214087</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.7520713286544</v>
+        <v>684.1518824999753</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.2971368018696</v>
+        <v>618.8573870473748</v>
       </c>
       <c r="AD2" t="n">
-        <v>355749.4348569316</v>
+        <v>500021.7973214087</v>
       </c>
       <c r="AE2" t="n">
-        <v>486752.0713286544</v>
+        <v>684151.8824999753</v>
       </c>
       <c r="AF2" t="n">
         <v>6.294273919920768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>440297.1368018696</v>
+        <v>618857.3870473749</v>
       </c>
     </row>
     <row r="3">
@@ -14100,28 +14100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.9421368409214</v>
+        <v>420.9736289209641</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.9210876713777</v>
+        <v>575.9946911354228</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.2759873743364</v>
+        <v>521.0225662270835</v>
       </c>
       <c r="AD3" t="n">
-        <v>295942.1368409214</v>
+        <v>420973.6289209641</v>
       </c>
       <c r="AE3" t="n">
-        <v>404921.0876713777</v>
+        <v>575994.6911354228</v>
       </c>
       <c r="AF3" t="n">
         <v>7.398961063261756e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.50520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>366275.9873743364</v>
+        <v>521022.5662270836</v>
       </c>
     </row>
     <row r="4">
@@ -14206,28 +14206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>282.226014522332</v>
+        <v>407.2233411835939</v>
       </c>
       <c r="AB4" t="n">
-        <v>386.1540840024736</v>
+        <v>557.1809408332711</v>
       </c>
       <c r="AC4" t="n">
-        <v>349.3000801959375</v>
+        <v>504.0043738485048</v>
       </c>
       <c r="AD4" t="n">
-        <v>282226.014522332</v>
+        <v>407223.3411835939</v>
       </c>
       <c r="AE4" t="n">
-        <v>386154.0840024736</v>
+        <v>557180.940833271</v>
       </c>
       <c r="AF4" t="n">
         <v>7.617351301767648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>349300.0801959375</v>
+        <v>504004.3738485049</v>
       </c>
     </row>
   </sheetData>
@@ -14503,28 +14503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>423.6311645076873</v>
+        <v>579.3451053873417</v>
       </c>
       <c r="AB2" t="n">
-        <v>579.6308485673731</v>
+        <v>792.6855320931545</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.3116938971076</v>
+        <v>717.0327374513149</v>
       </c>
       <c r="AD2" t="n">
-        <v>423631.1645076873</v>
+        <v>579345.1053873417</v>
       </c>
       <c r="AE2" t="n">
-        <v>579630.848567373</v>
+        <v>792685.5320931545</v>
       </c>
       <c r="AF2" t="n">
         <v>5.079187260122901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.23958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>524311.6938971076</v>
+        <v>717032.7374513149</v>
       </c>
     </row>
     <row r="3">
@@ -14609,28 +14609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.3834580023243</v>
+        <v>460.8884125030989</v>
       </c>
       <c r="AB3" t="n">
-        <v>457.5181991958073</v>
+        <v>630.6078589484721</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.8533043953843</v>
+        <v>570.423529954118</v>
       </c>
       <c r="AD3" t="n">
-        <v>334383.4580023243</v>
+        <v>460888.412503099</v>
       </c>
       <c r="AE3" t="n">
-        <v>457518.1991958073</v>
+        <v>630607.8589484721</v>
       </c>
       <c r="AF3" t="n">
         <v>6.220696362066131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>413853.3043953843</v>
+        <v>570423.529954118</v>
       </c>
     </row>
     <row r="4">
@@ -14715,28 +14715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.5244433141478</v>
+        <v>431.0625522038461</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.6637780126856</v>
+        <v>589.7988010629441</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.8979718304394</v>
+        <v>533.5092312773121</v>
       </c>
       <c r="AD4" t="n">
-        <v>304524.4433141478</v>
+        <v>431062.552203846</v>
       </c>
       <c r="AE4" t="n">
-        <v>416663.7780126856</v>
+        <v>589798.8010629441</v>
       </c>
       <c r="AF4" t="n">
         <v>6.665364214635578e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.55729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>376897.9718304393</v>
+        <v>533509.2312773122</v>
       </c>
     </row>
     <row r="5">
@@ -14821,28 +14821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>300.4654025029254</v>
+        <v>417.2340282107401</v>
       </c>
       <c r="AB5" t="n">
-        <v>411.1100193025289</v>
+        <v>570.8780044641546</v>
       </c>
       <c r="AC5" t="n">
-        <v>371.8742560568307</v>
+        <v>516.3942089504066</v>
       </c>
       <c r="AD5" t="n">
-        <v>300465.4025029254</v>
+        <v>417234.0282107401</v>
       </c>
       <c r="AE5" t="n">
-        <v>411110.0193025289</v>
+        <v>570878.0044641546</v>
       </c>
       <c r="AF5" t="n">
         <v>6.816102277513384e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.03645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>371874.2560568308</v>
+        <v>516394.2089504065</v>
       </c>
     </row>
   </sheetData>
@@ -15118,28 +15118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.2044546180928</v>
+        <v>449.6108335043256</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.5941994787247</v>
+        <v>615.177377830679</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.7395951776145</v>
+        <v>556.4657122973908</v>
       </c>
       <c r="AD2" t="n">
-        <v>305204.4546180928</v>
+        <v>449610.8335043256</v>
       </c>
       <c r="AE2" t="n">
-        <v>417594.1994787247</v>
+        <v>615177.3778306791</v>
       </c>
       <c r="AF2" t="n">
         <v>1.326235015527162e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.94791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>377739.5951776145</v>
+        <v>556465.7122973908</v>
       </c>
     </row>
   </sheetData>
@@ -15415,28 +15415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.3348040221578</v>
+        <v>417.9937209823615</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.0901081151123</v>
+        <v>571.9174496295667</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.5243153406339</v>
+        <v>517.334450928102</v>
       </c>
       <c r="AD2" t="n">
-        <v>295334.8040221578</v>
+        <v>417993.7209823615</v>
       </c>
       <c r="AE2" t="n">
-        <v>404090.1081151123</v>
+        <v>571917.4496295667</v>
       </c>
       <c r="AF2" t="n">
         <v>8.627087637635541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>365524.3153406339</v>
+        <v>517334.450928102</v>
       </c>
     </row>
     <row r="3">
@@ -15521,28 +15521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.3668841426002</v>
+        <v>393.0589554917275</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.9278986290171</v>
+        <v>537.8006034410652</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.6224991809295</v>
+        <v>486.4736686565367</v>
       </c>
       <c r="AD3" t="n">
-        <v>270366.8841426002</v>
+        <v>393058.9554917275</v>
       </c>
       <c r="AE3" t="n">
-        <v>369927.8986290171</v>
+        <v>537800.6034410652</v>
       </c>
       <c r="AF3" t="n">
         <v>9.105413798195116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.77604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>334622.4991809295</v>
+        <v>486473.6686565367</v>
       </c>
     </row>
   </sheetData>
@@ -15818,28 +15818,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.3434823767353</v>
+        <v>467.0112684379607</v>
       </c>
       <c r="AB2" t="n">
-        <v>456.0952586643899</v>
+        <v>638.9854205598896</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.5661673111756</v>
+        <v>578.0015488433232</v>
       </c>
       <c r="AD2" t="n">
-        <v>333343.4823767352</v>
+        <v>467011.2684379607</v>
       </c>
       <c r="AE2" t="n">
-        <v>456095.2586643898</v>
+        <v>638985.4205598895</v>
       </c>
       <c r="AF2" t="n">
         <v>7.063262826406007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.31770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>412566.1673111756</v>
+        <v>578001.5488433233</v>
       </c>
     </row>
     <row r="3">
@@ -15924,28 +15924,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.0296295902725</v>
+        <v>402.1756220912993</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.4124050069925</v>
+        <v>550.2744288815438</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.106378985288</v>
+        <v>497.7570097041001</v>
       </c>
       <c r="AD3" t="n">
-        <v>278029.6295902724</v>
+        <v>402175.6220912993</v>
       </c>
       <c r="AE3" t="n">
-        <v>380412.4050069925</v>
+        <v>550274.4288815438</v>
       </c>
       <c r="AF3" t="n">
         <v>8.085144515777625e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>344106.378985288</v>
+        <v>497757.0097041001</v>
       </c>
     </row>
     <row r="4">
@@ -16030,28 +16030,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.9076094350592</v>
+        <v>402.053601936086</v>
       </c>
       <c r="AB4" t="n">
-        <v>380.2454516474803</v>
+        <v>550.1074755220317</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.9553594200872</v>
+        <v>497.6059901388992</v>
       </c>
       <c r="AD4" t="n">
-        <v>277907.6094350591</v>
+        <v>402053.601936086</v>
       </c>
       <c r="AE4" t="n">
-        <v>380245.4516474803</v>
+        <v>550107.4755220317</v>
       </c>
       <c r="AF4" t="n">
         <v>8.1060294727571e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>343955.3594200872</v>
+        <v>497605.9901388992</v>
       </c>
     </row>
   </sheetData>
